--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_7_8.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_7_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,32 +478,776 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
+          <t>model_7_8_21</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.8105173270126445</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5096086976720354</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2771467018098828</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.4019877618437026</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.2097014635801315</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.5335893630981445</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.7808216214179993</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6499338150024414</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>model_7_8_24</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8202036787695962</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5093674883672474</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3243018383584353</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4239166923640403</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1989815533161163</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.5338518619537354</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.729884922504425</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.6261009573936462</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>model_7_8_20</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8202552557469245</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4703474944776228</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4021878680370365</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4396617381485265</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1989244669675827</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.5763090252876282</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.6457529664039612</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.6089888215065002</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>model_7_8_22</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8206221484368077</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5073922650881049</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3343108741152833</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4275488137573097</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1985184103250504</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.5360010266304016</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7190732359886169</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.6221534013748169</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>model_7_8_23</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8209294342403065</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5082542518509163</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3330400494537384</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.427411914295547</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1981783658266068</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5350630879402161</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.720445990562439</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.6223022937774658</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>model_7_8_19</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8222995337072792</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4775644429454264</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4124128264576012</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.448268030887074</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.1966620534658432</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.5684564113616943</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.634708046913147</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.5996353030204773</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>model_7_8_18</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.822570326732837</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4738532008391323</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4212805609613267</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4504511284142788</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1963623613119125</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.5724945068359375</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.6251291036605835</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.5972626209259033</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>model_7_8_17</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8233134803233055</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4736956259109123</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4312459272220738</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4550265742000315</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1955399215221405</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.5726659893989563</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.6143646240234375</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.5922899842262268</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>model_7_8_16</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8245239024494945</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4761450500610682</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4406468912707844</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4607230795972537</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1942003220319748</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.5700007677078247</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.6042097210884094</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.5860987901687622</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>model_7_8_15</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8261005708033833</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4665764774738906</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4724576889210592</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.4705296223592473</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1924554258584976</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.5804122686386108</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.5698479413986206</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.5754408836364746</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>model_7_8_14</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8264452048586601</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4685475194328645</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4776564853447223</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.4740074099028351</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1920740157365799</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.5782675743103027</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.5642322301864624</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.5716611742973328</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>model_7_8_13</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.8283753509169791</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4690096696093068</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4958503521542722</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.4827612099746725</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1899379193782806</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.5777647495269775</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.5445793271064758</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.5621472597122192</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>model_7_8_11</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.8485762532496003</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5816012390571732</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.535400386578158</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5609368891099216</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1675814688205719</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.4552550911903381</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.5018576383590698</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.4771841764450073</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>model_7_8_10</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.8490583050351778</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5791473344122446</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5476765306667943</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5653744851037574</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.1670479774475098</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.4579251110553741</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.4885970056056976</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.4723612368106842</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>model_7_8_12</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.849722669764025</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5624775635600023</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.56247202278276</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5634620091205964</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.1663127243518829</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.4760633707046509</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.4726150035858154</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.4744397401809692</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>model_7_8_8</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8511473014472647</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5919820074663826</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.560744333418439</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5782911264705974</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.1647360771894455</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.4439598619937897</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.4744812250137329</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.4583231508731842</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>model_7_8_9</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8514127771103911</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5839326819271866</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.5647469567410799</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.5758970573506786</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.1644422709941864</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.4527182579040527</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.4701576232910156</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.4609251022338867</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>model_7_8_7</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8523732123175842</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6046412946887532</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5601371741133763</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.5847175124443486</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1633793562650681</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.4301854372024536</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.4751370549201965</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.4513387978076935</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>model_7_8_6</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8537694534901685</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6084443067723955</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5728050711954944</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.5926574622325127</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.1618341356515884</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.4260474145412445</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.4614533185958862</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.4427094757556915</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>model_7_8_5</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8544362905552922</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6014260630180137</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5929197865207245</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.5983438914254567</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.1610961258411407</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.4336839020252228</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.4397255182266235</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.4365293085575104</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>model_7_8_2</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8711682039305833</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6814423430102958</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.7040238913628052</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.6927219123973147</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.1425788402557373</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3466190695762634</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.3197115659713745</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.3339571058750153</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>model_7_8_4</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8735243420334068</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.6766255100057386</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.6955128352236009</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.6861880835879151</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.1399712860584259</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.3518602252006531</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.3289051353931427</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.3410581648349762</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>model_7_8_3</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8748370850651555</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.6887625709246932</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.7022837672329969</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.6957884932585198</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.1385184675455093</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.3386540114879608</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.3215911984443665</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.3306242525577545</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_7_8_1</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9294311816132647</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8887708266622776</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9734356697066924</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9286205337179549</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.07809888571500778</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1210272461175919</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.02869462408125401</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0775768831372261</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
           <t>model_7_8_0</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>-0.4975387112901029</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-3.506314205831502</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6321123338186592</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-2.008118353019577</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.657334089279175</v>
-      </c>
-      <c r="G2" t="n">
-        <v>8.62708854675293</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.3421700298786163</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4.728304386138916</v>
+      <c r="B26" t="n">
+        <v>0.9294952362176421</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.8910812863459514</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9839203656240426</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9347494371896926</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.07802800089120865</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1185132563114166</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.01736912131309509</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.07091584056615829</v>
       </c>
     </row>
   </sheetData>
